--- a/metadata_inputs.xlsx
+++ b/metadata_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Michelle\Metadata\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Michelle\Code\R_code\SimplifiedMetadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,9 +44,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Element Occurrences, Element Observations</t>
-  </si>
-  <si>
     <t>Michelle M. Fink</t>
   </si>
   <si>
@@ -101,10 +98,13 @@
     <t>Code2</t>
   </si>
   <si>
-    <t>ABNDC04030</t>
-  </si>
-  <si>
-    <t>something intelligent here</t>
+    <t>oceahomo</t>
+  </si>
+  <si>
+    <t>Element Occurrences (EOs)</t>
+  </si>
+  <si>
+    <t>1 km grid cells containing the breeding EOs were used as the model</t>
   </si>
 </sst>
 </file>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,25 +681,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -717,54 +717,54 @@
         <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
         <v>102988</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">

--- a/metadata_inputs.xlsx
+++ b/metadata_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Michelle\Code\R_code\SimplifiedMetadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Michelle\Metadata\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Inputs</t>
   </si>
@@ -98,13 +98,49 @@
     <t>Code2</t>
   </si>
   <si>
+    <t>Oceanodroma melania</t>
+  </si>
+  <si>
+    <t>Black Storm-Petrel</t>
+  </si>
+  <si>
+    <t>oceamela_AltMap_20190228.tif</t>
+  </si>
+  <si>
+    <t>Element Occurrences (EOs)</t>
+  </si>
+  <si>
+    <t>Agathymus gentryi</t>
+  </si>
+  <si>
+    <t>Gentry's Giant-Skipper</t>
+  </si>
+  <si>
     <t>oceahomo</t>
   </si>
   <si>
-    <t>Element Occurrences (EOs)</t>
-  </si>
-  <si>
-    <t>1 km grid cells containing the breeding EOs were used as the model</t>
+    <t>oceamela</t>
+  </si>
+  <si>
+    <t>agatgent_AltMap_20190417.tif</t>
+  </si>
+  <si>
+    <t>agatgent</t>
+  </si>
+  <si>
+    <t>Arizona Heritage Data Management System</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>Element Occurrences (EOs), Butterflies and Moths of North America (BAMONA), Land Cover, and Elevation</t>
+  </si>
+  <si>
+    <t>created using EOs plus BAMONA locations to inform land cover (pinyon-juniper and desert scrub) and topography (intermediately to moderately rugged) selections</t>
+  </si>
+  <si>
+    <t>a simple selection of 1 km grid cells containing the breeding EOs</t>
   </si>
 </sst>
 </file>
@@ -659,14 +695,14 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
@@ -675,7 +711,7 @@
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="68.42578125" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -731,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>102988</v>
@@ -740,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -758,12 +794,100 @@
         <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>105368</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>116354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -812,9 +936,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/metadata_inputs.xlsx
+++ b/metadata_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Michelle\Metadata\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Michelle\Code\R_code\SimplifiedMetadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,130 +24,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
-  <si>
-    <t>Inputs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Filename</t>
   </si>
   <si>
-    <t>ContactName</t>
-  </si>
-  <si>
-    <t>ContactOrg</t>
-  </si>
-  <si>
-    <t>ContactEmail</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Michelle M. Fink</t>
-  </si>
-  <si>
-    <t>Colorado Natural Heritage Program</t>
-  </si>
-  <si>
-    <t>michelle.fink@colostate.edu</t>
-  </si>
-  <si>
-    <t>oceahomo_AltMap_20190228.tif</t>
-  </si>
-  <si>
-    <t>Oceanodroma homochroa</t>
-  </si>
-  <si>
-    <t>Grank</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
     <t>SciName</t>
   </si>
   <si>
     <t>CommName</t>
   </si>
   <si>
-    <t>Ashy Storm-Petrel</t>
-  </si>
-  <si>
-    <t>Reviewed</t>
-  </si>
-  <si>
-    <t>Awaiting review</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Not final</t>
-  </si>
-  <si>
-    <t>InputSource</t>
-  </si>
-  <si>
-    <t>California Natural Diversity Database</t>
-  </si>
-  <si>
-    <t>Code1</t>
-  </si>
-  <si>
-    <t>Code2</t>
-  </si>
-  <si>
-    <t>Oceanodroma melania</t>
-  </si>
-  <si>
-    <t>Black Storm-Petrel</t>
-  </si>
-  <si>
-    <t>oceamela_AltMap_20190228.tif</t>
-  </si>
-  <si>
-    <t>Element Occurrences (EOs)</t>
-  </si>
-  <si>
-    <t>Agathymus gentryi</t>
-  </si>
-  <si>
-    <t>Gentry's Giant-Skipper</t>
-  </si>
-  <si>
-    <t>oceahomo</t>
-  </si>
-  <si>
-    <t>oceamela</t>
-  </si>
-  <si>
-    <t>agatgent_AltMap_20190417.tif</t>
-  </si>
-  <si>
-    <t>agatgent</t>
-  </si>
-  <si>
-    <t>Arizona Heritage Data Management System</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>Element Occurrences (EOs), Butterflies and Moths of North America (BAMONA), Land Cover, and Elevation</t>
-  </si>
-  <si>
-    <t>created using EOs plus BAMONA locations to inform land cover (pinyon-juniper and desert scrub) and topography (intermediately to moderately rugged) selections</t>
-  </si>
-  <si>
-    <t>a simple selection of 1 km grid cells containing the breeding EOs</t>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>SuppInfo</t>
+  </si>
+  <si>
+    <t>Inputs1</t>
+  </si>
+  <si>
+    <t>InputSource1</t>
+  </si>
+  <si>
+    <t>Inputs2</t>
+  </si>
+  <si>
+    <t>InputSource2</t>
+  </si>
+  <si>
+    <t>Inputs3</t>
+  </si>
+  <si>
+    <t>InputSource3</t>
+  </si>
+  <si>
+    <t>Inputs4</t>
+  </si>
+  <si>
+    <t>InputSource4</t>
+  </si>
+  <si>
+    <t>ProcStep1</t>
+  </si>
+  <si>
+    <t>ProcStep2</t>
+  </si>
+  <si>
+    <t>ProcStep3</t>
+  </si>
+  <si>
+    <t>ProcStep4</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>percent Clay</t>
+  </si>
+  <si>
+    <t>percent Organic Matter</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Bulk Density</t>
+  </si>
+  <si>
+    <t>Polaris Soils - Depth-weighted average of percent sand to 1 meter</t>
+  </si>
+  <si>
+    <t>Polaris Soils - Depth-weighted average of percent clay to 1 meter</t>
+  </si>
+  <si>
+    <t>Polaris Soils - Depth-weighted average of percent organic matter to 1 meter</t>
+  </si>
+  <si>
+    <t>Polaris Soils - Depth-weighted average of pH to 1 meter</t>
+  </si>
+  <si>
+    <t>Polaris Soils - Depth-weighted average of bulk density to 1 meter</t>
+  </si>
+  <si>
+    <t>g/cm3</t>
+  </si>
+  <si>
+    <t>percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +154,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,20 +184,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -219,74 +209,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -437,7 +359,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFBF0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -692,255 +614,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="68.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2">
-        <v>102988</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3">
-        <v>105368</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>116354</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/metadata_inputs.xlsx
+++ b/metadata_inputs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Filename</t>
   </si>
@@ -89,12 +89,6 @@
     <t>Sand</t>
   </si>
   <si>
-    <t>percent Clay</t>
-  </si>
-  <si>
-    <t>percent Organic Matter</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
@@ -120,6 +114,81 @@
   </si>
   <si>
     <t>percent</t>
+  </si>
+  <si>
+    <t>bd_dwave.tif</t>
+  </si>
+  <si>
+    <t>ph_dwave.tif</t>
+  </si>
+  <si>
+    <t>om_dwave.tif</t>
+  </si>
+  <si>
+    <t>clay_dwave.tif</t>
+  </si>
+  <si>
+    <t>sand_dwave.tif</t>
+  </si>
+  <si>
+    <t>For use as an environmental input in black-tailed prairie dog distribution modeling for the Homes on the Range project.</t>
+  </si>
+  <si>
+    <t>Polaris percent sand</t>
+  </si>
+  <si>
+    <t>Polaris percent clay</t>
+  </si>
+  <si>
+    <t>Polaris percent organic matter</t>
+  </si>
+  <si>
+    <t>Polaris pH</t>
+  </si>
+  <si>
+    <t>Polaris g/cm3 bulk density</t>
+  </si>
+  <si>
+    <t>Chaney, N. W., Minasny, B., Herman, J. D., Nauman, T. W., Brungard, C., Morgan, C. L. S., et al. (2019). POLARIS soil properties: 30-m probabilistic maps of soil properties over the contiguous United States. Water Resources Research, 55. https://doi.org/10.1029/2018WR022797</t>
+  </si>
+  <si>
+    <t>Individual 1-degree tiles of Polaris sand data were depth-weighted over 5 depth categories (0-5, 5-15, 15-30, 30-60, and 60-100 cm) and merged into a single raster file for the study area.</t>
+  </si>
+  <si>
+    <t>Individual 1-degree tiles of Polaris clay data were depth-weighted over 5 depth categories (0-5, 5-15, 15-30, 30-60, and 60-100 cm) and merged into a single raster file for the study area.</t>
+  </si>
+  <si>
+    <t>Individual 1-degree tiles of Polaris organic matter data were first converted from log10(%) to %, and then depth-weighted over 5 depth categories (0-5, 5-15, 15-30, 30-60, and 60-100 cm) and merged into a single raster file for the study area.</t>
+  </si>
+  <si>
+    <t>Individual 1-degree tiles of Polaris pH data were depth-weighted over 5 depth categories (0-5, 5-15, 15-30, 30-60, and 60-100 cm) and merged into a single raster file for the study area.</t>
+  </si>
+  <si>
+    <t>Individual 1-degree tiles of Polaris bulk density data were depth-weighted over 5 depth categories (0-5, 5-15, 15-30, 30-60, and 60-100 cm) and merged into a single raster file for the study area.</t>
+  </si>
+  <si>
+    <t>See https://github.com/mmfink/HOTR_code/merge_polaris.r</t>
+  </si>
+  <si>
+    <t>Soil sand composition. Units are percent</t>
+  </si>
+  <si>
+    <t>Soil clay composition. Units are percent</t>
+  </si>
+  <si>
+    <t>Soil organic matter composition. Units are percent</t>
+  </si>
+  <si>
+    <t>Soil pH in water.</t>
+  </si>
+  <si>
+    <t>Soil bulk density. Units are grams per cubic centimeter.</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Organic Matter</t>
   </si>
 </sst>
 </file>
@@ -617,7 +686,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,19 +694,21 @@
     <col min="1" max="1" width="21" style="3" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="54.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.5703125" style="3" customWidth="1"/>
+    <col min="17" max="19" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -702,53 +773,164 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="P2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="P3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="P4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
